--- a/styles/HPE/progress_list.xlsx
+++ b/styles/HPE/progress_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricSzegedi\styles\HPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtceurope-my.sharepoint.com/personal/eric_szegedi_dtc-e_com/Documents/personal_documents/git/vale_linter/styles/HPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8437D09-466C-469D-8559-3163E2B45CFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C8437D09-466C-469D-8559-3163E2B45CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB010C7-4A2C-44F3-9B3B-2080D14D845B}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="1356" windowWidth="21504" windowHeight="11148" xr2:uid="{EC14D7F9-078E-4114-B177-94F6D1D807CC}"/>
+    <workbookView xWindow="10488" yWindow="2292" windowWidth="23040" windowHeight="9816" xr2:uid="{EC14D7F9-078E-4114-B177-94F6D1D807CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$388</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$389</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="385">
   <si>
     <t>Zero</t>
   </si>
@@ -1189,6 +1189,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1567,11 +1570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACAFDB0-7FD9-493E-90FC-09E6EDF1A8A5}">
-  <dimension ref="A1:C388"/>
+  <dimension ref="A1:C389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B392" sqref="B392"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,15 +1656,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>374</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>374</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>374</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>374</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>374</v>
@@ -1701,15 +1701,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>383</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>383</v>
@@ -1725,31 +1725,31 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>383</v>
@@ -1757,15 +1757,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>383</v>
@@ -1773,23 +1773,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="B26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>383</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>383</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>383</v>
@@ -1813,23 +1813,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>383</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>383</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>383</v>
@@ -1853,15 +1853,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>383</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>383</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>383</v>
@@ -1885,15 +1885,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>383</v>
@@ -1901,23 +1901,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>383</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>383</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>383</v>
@@ -1941,39 +1941,36 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>374</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>383</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>383</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>383</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>383</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>383</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>383</v>
@@ -2021,7 +2018,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>383</v>
@@ -2029,15 +2026,15 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>374</v>
@@ -2045,15 +2042,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>374</v>
@@ -2061,7 +2058,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>374</v>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>374</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>374</v>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>374</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>374</v>
@@ -2101,7 +2098,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>374</v>
@@ -2109,7 +2106,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>374</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>374</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>374</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>374</v>
@@ -2141,23 +2138,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
       <c r="B72" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>383</v>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>383</v>
@@ -2173,7 +2170,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>383</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>383</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>383</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>383</v>
@@ -2205,31 +2202,31 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>383</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>383</v>
@@ -2245,23 +2242,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>383</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>383</v>
@@ -2277,7 +2274,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>383</v>
@@ -2285,7 +2282,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>383</v>
@@ -2293,7 +2290,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>383</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>383</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>383</v>
@@ -2317,7 +2314,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>383</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>383</v>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>383</v>
@@ -2341,7 +2338,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>383</v>
@@ -2349,7 +2346,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>383</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>383</v>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>383</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>383</v>
@@ -2381,15 +2378,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>383</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>383</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>383</v>
@@ -2413,71 +2410,71 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+      <c r="B108" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
       <c r="B109" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="B113" t="s">
         <v>383</v>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>383</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>383</v>
@@ -2501,15 +2498,15 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>117</v>
       </c>
       <c r="B117" t="s">
         <v>383</v>
@@ -2517,7 +2514,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>383</v>
@@ -2525,7 +2522,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>383</v>
@@ -2533,31 +2530,31 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
         <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="B123" t="s">
         <v>374</v>
@@ -2565,15 +2562,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>125</v>
       </c>
       <c r="B125" t="s">
         <v>374</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>374</v>
@@ -2589,15 +2586,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>374</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>374</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>374</v>
@@ -2621,7 +2618,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>374</v>
@@ -2629,23 +2626,23 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
       <c r="B133" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>383</v>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>383</v>
@@ -2661,7 +2658,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>383</v>
@@ -2669,7 +2666,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>383</v>
@@ -2677,7 +2674,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>383</v>
@@ -2685,7 +2682,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>383</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>383</v>
@@ -2701,39 +2698,39 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>383</v>
@@ -2741,7 +2738,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>383</v>
@@ -2749,15 +2746,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="B148" t="s">
         <v>383</v>
@@ -2765,39 +2762,39 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B149" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
       <c r="B150" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>374</v>
@@ -2805,15 +2802,15 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>383</v>
@@ -2821,23 +2818,23 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>383</v>
@@ -2845,7 +2842,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>383</v>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>383</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>383</v>
@@ -2869,23 +2866,23 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>383</v>
@@ -2893,47 +2890,47 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>374</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>374</v>
@@ -2949,55 +2946,55 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
       <c r="B173" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>374</v>
@@ -3005,23 +3002,23 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>383</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>383</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>383</v>
@@ -3045,15 +3042,15 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>374</v>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>374</v>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>374</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B188" t="s">
         <v>374</v>
@@ -3085,7 +3082,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B189" t="s">
         <v>374</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B190" t="s">
         <v>374</v>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B191" t="s">
         <v>374</v>
@@ -3109,15 +3106,15 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B192" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B192" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>186</v>
       </c>
       <c r="B193" t="s">
         <v>383</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B194" t="s">
         <v>383</v>
@@ -3133,7 +3130,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B195" t="s">
         <v>383</v>
@@ -3141,15 +3138,15 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B197" t="s">
         <v>374</v>
@@ -3157,15 +3154,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B198" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="B199" t="s">
         <v>383</v>
@@ -3173,47 +3170,47 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B200" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
+        <v>192</v>
+      </c>
+      <c r="B201" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>193</v>
       </c>
-      <c r="B201" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+      <c r="B202" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B202" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>195</v>
-      </c>
       <c r="B203" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B204" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B205" t="s">
         <v>383</v>
@@ -3221,7 +3218,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B206" t="s">
         <v>383</v>
@@ -3229,7 +3226,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B207" t="s">
         <v>383</v>
@@ -3237,7 +3234,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B208" t="s">
         <v>383</v>
@@ -3245,15 +3242,15 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>201</v>
-      </c>
-      <c r="B209" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="B210" t="s">
         <v>383</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B211" t="s">
         <v>383</v>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B212" t="s">
         <v>383</v>
@@ -3277,7 +3274,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B213" t="s">
         <v>383</v>
@@ -3285,7 +3282,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B214" t="s">
         <v>383</v>
@@ -3293,23 +3290,23 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B215" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>208</v>
-      </c>
       <c r="B216" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B217" t="s">
         <v>374</v>
@@ -3317,7 +3314,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B218" t="s">
         <v>374</v>
@@ -3325,15 +3322,15 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B219" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B220" t="s">
         <v>383</v>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
         <v>383</v>
@@ -3349,47 +3346,47 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B222" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>215</v>
       </c>
-      <c r="B223" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
-        <v>216</v>
-      </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B225" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B226" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B226" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>219</v>
       </c>
       <c r="B227" t="s">
         <v>383</v>
@@ -3397,23 +3394,23 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B228" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B230" t="s">
         <v>383</v>
@@ -3421,7 +3418,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B231" t="s">
         <v>383</v>
@@ -3429,7 +3426,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B232" t="s">
         <v>383</v>
@@ -3437,7 +3434,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
         <v>383</v>
@@ -3445,7 +3442,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B234" t="s">
         <v>383</v>
@@ -3453,31 +3450,31 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>227</v>
       </c>
-      <c r="B235" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+      <c r="B236" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B236" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+      <c r="B237" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>229</v>
-      </c>
-      <c r="B237" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="B238" t="s">
         <v>374</v>
@@ -3485,23 +3482,23 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B240" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B241" t="s">
         <v>374</v>
@@ -3509,15 +3506,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B242" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243" t="s">
         <v>383</v>
@@ -3525,7 +3522,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B244" t="s">
         <v>383</v>
@@ -3533,7 +3530,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B245" t="s">
         <v>383</v>
@@ -3541,7 +3538,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B246" t="s">
         <v>383</v>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B247" t="s">
         <v>383</v>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B248" t="s">
         <v>383</v>
@@ -3565,7 +3562,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B249" t="s">
         <v>383</v>
@@ -3573,7 +3570,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B250" t="s">
         <v>383</v>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B251" t="s">
         <v>383</v>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B252" t="s">
         <v>383</v>
@@ -3597,15 +3594,15 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B253" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B253" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>246</v>
       </c>
       <c r="B254" t="s">
         <v>383</v>
@@ -3613,55 +3610,55 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B255" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B256" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B257" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B258" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B259" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B260" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B261" t="s">
         <v>383</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B262" t="s">
         <v>383</v>
@@ -3677,23 +3674,23 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B263" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B264" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B265" t="s">
         <v>383</v>
@@ -3701,7 +3698,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B266" t="s">
         <v>383</v>
@@ -3709,23 +3706,23 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B267" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B268" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B269" t="s">
         <v>383</v>
@@ -3733,23 +3730,23 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B270" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B271" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B272" t="s">
         <v>383</v>
@@ -3757,55 +3754,55 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B273" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B274" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B276" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B277" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>269</v>
+      </c>
+      <c r="B278" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>270</v>
-      </c>
-      <c r="B278" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="B279" t="s">
         <v>383</v>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B280" t="s">
         <v>383</v>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B281" t="s">
         <v>383</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B282" t="s">
         <v>383</v>
@@ -3837,7 +3834,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B283" t="s">
         <v>383</v>
@@ -3845,7 +3842,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B284" t="s">
         <v>383</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B285" t="s">
         <v>383</v>
@@ -3861,7 +3858,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B286" t="s">
         <v>383</v>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B287" t="s">
         <v>383</v>
@@ -3877,7 +3874,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B288" t="s">
         <v>383</v>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B289" t="s">
         <v>383</v>
@@ -3893,15 +3890,15 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B290" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B290" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>283</v>
       </c>
       <c r="B291" t="s">
         <v>383</v>
@@ -3909,15 +3906,15 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
+        <v>283</v>
+      </c>
+      <c r="B292" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>284</v>
-      </c>
-      <c r="B292" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="B293" t="s">
         <v>383</v>
@@ -3925,7 +3922,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B294" t="s">
         <v>383</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B295" t="s">
         <v>383</v>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B296" t="s">
         <v>383</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="B297" t="s">
         <v>383</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="B298" t="s">
         <v>383</v>
@@ -3965,15 +3962,15 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B299" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B299" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>291</v>
       </c>
       <c r="B300" t="s">
         <v>383</v>
@@ -3981,23 +3978,23 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>291</v>
+      </c>
+      <c r="B301" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>292</v>
       </c>
-      <c r="B301" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="2" t="s">
+      <c r="B302" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B302" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>294</v>
       </c>
       <c r="B303" t="s">
         <v>383</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B304" t="s">
         <v>383</v>
@@ -4013,15 +4010,15 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
+        <v>295</v>
+      </c>
+      <c r="B305" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>296</v>
-      </c>
-      <c r="B305" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="B306" t="s">
         <v>383</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B307" t="s">
         <v>383</v>
@@ -4037,15 +4034,15 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B308" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B308" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>300</v>
       </c>
       <c r="B309" t="s">
         <v>374</v>
@@ -4053,7 +4050,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B310" t="s">
         <v>374</v>
@@ -4061,39 +4058,39 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B311" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B312" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B313" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B314" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B315" t="s">
         <v>374</v>
@@ -4101,23 +4098,23 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B316" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B317" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B318" t="s">
         <v>374</v>
@@ -4125,15 +4122,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B319" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B320" t="s">
         <v>383</v>
@@ -4141,31 +4138,31 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B321" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B322" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B323" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B324" t="s">
         <v>374</v>
@@ -4173,15 +4170,15 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B325" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B326" t="s">
         <v>383</v>
@@ -4189,7 +4186,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B327" t="s">
         <v>383</v>
@@ -4197,12 +4194,15 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="B328" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B329" t="s">
         <v>383</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B330" t="s">
         <v>383</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B331" t="s">
         <v>383</v>
@@ -4226,7 +4226,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B332" t="s">
         <v>383</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B333" t="s">
         <v>383</v>
@@ -4242,15 +4242,15 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
+        <v>324</v>
+      </c>
+      <c r="B334" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>325</v>
-      </c>
-      <c r="B334" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="B335" t="s">
         <v>383</v>
@@ -4258,7 +4258,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B336" t="s">
         <v>383</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B337" t="s">
         <v>383</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B338" t="s">
         <v>383</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B339" t="s">
         <v>383</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B340" t="s">
         <v>383</v>
@@ -4298,15 +4298,15 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B341" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B341" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>333</v>
       </c>
       <c r="B342" t="s">
         <v>383</v>
@@ -4314,23 +4314,23 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B343" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B344" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B345" t="s">
         <v>383</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B346" t="s">
         <v>383</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B347" t="s">
         <v>383</v>
@@ -4354,7 +4354,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B348" t="s">
         <v>383</v>
@@ -4362,31 +4362,31 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B349" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B350" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
+        <v>341</v>
+      </c>
+      <c r="B351" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>342</v>
-      </c>
-      <c r="B351" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="B352" t="s">
         <v>374</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B353" t="s">
         <v>374</v>
@@ -4402,47 +4402,47 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B354" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B354" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>346</v>
-      </c>
       <c r="B355" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B356" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B357" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
+        <v>348</v>
+      </c>
+      <c r="B358" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>349</v>
-      </c>
-      <c r="B358" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="B359" t="s">
         <v>374</v>
@@ -4450,15 +4450,15 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B360" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B360" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>352</v>
       </c>
       <c r="B361" t="s">
         <v>383</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B362" t="s">
         <v>383</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B363" t="s">
         <v>383</v>
@@ -4482,23 +4482,23 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
+        <v>354</v>
+      </c>
+      <c r="B364" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>355</v>
       </c>
-      <c r="B364" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="2" t="s">
+      <c r="B365" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="B365" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>357</v>
       </c>
       <c r="B366" t="s">
         <v>383</v>
@@ -4506,23 +4506,23 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B367" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
+        <v>358</v>
+      </c>
+      <c r="B368" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>359</v>
-      </c>
-      <c r="B368" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B369" t="s">
         <v>374</v>
@@ -4530,23 +4530,23 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B370" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>360</v>
-      </c>
       <c r="B371" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B372" t="s">
         <v>383</v>
@@ -4554,23 +4554,23 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B373" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B374" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B375" t="s">
         <v>383</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B376" t="s">
         <v>383</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B377" t="s">
         <v>383</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B378" t="s">
         <v>383</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B379" t="s">
         <v>383</v>
@@ -4610,15 +4610,15 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B380" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B381" t="s">
         <v>374</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B382" t="s">
         <v>374</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B383" t="s">
         <v>374</v>
@@ -4642,50 +4642,58 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="B385" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>382</v>
       </c>
-      <c r="B386" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A387">
-        <f>COUNTA(A2:A386)</f>
-        <v>385</v>
-      </c>
-      <c r="B387">
-        <f>COUNTA(B2:B386)</f>
+      <c r="B387" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <f>COUNTA(A2:A387)</f>
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <f>COUNTA(B2:B387)</f>
         <v>384</v>
       </c>
-      <c r="C387">
-        <f>A387-B387</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B388" s="3">
-        <f>B387/A387</f>
-        <v>0.9974025974025974</v>
+      <c r="C388">
+        <f>A388-B388</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B389" s="3">
+        <f>B388/A388</f>
+        <v>0.99481865284974091</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B388" xr:uid="{CAE5D3C3-36B5-4FC6-B7B0-5A23D52D4AD9}"/>
+  <autoFilter ref="A1:B389" xr:uid="{CAE5D3C3-36B5-4FC6-B7B0-5A23D52D4AD9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/styles/HPE/progress_list.xlsx
+++ b/styles/HPE/progress_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtceurope-my.sharepoint.com/personal/eric_szegedi_dtc-e_com/Documents/personal_documents/git/vale_linter/styles/HPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C8437D09-466C-469D-8559-3163E2B45CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB010C7-4A2C-44F3-9B3B-2080D14D845B}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C8437D09-466C-469D-8559-3163E2B45CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9972F6D3-97FF-46ED-9993-CF3E481B26F8}"/>
   <bookViews>
-    <workbookView xWindow="10488" yWindow="2292" windowWidth="23040" windowHeight="9816" xr2:uid="{EC14D7F9-078E-4114-B177-94F6D1D807CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC14D7F9-078E-4114-B177-94F6D1D807CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="385">
   <si>
     <t>Zero</t>
   </si>
@@ -1573,8 +1573,8 @@
   <dimension ref="A1:C389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1658,6 +1658,9 @@
       <c r="A10" t="s">
         <v>384</v>
       </c>
+      <c r="B10" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1943,6 +1946,9 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2741,7 +2747,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -4679,17 +4685,17 @@
       </c>
       <c r="B388">
         <f>COUNTA(B2:B387)</f>
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C388">
         <f>A388-B388</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B389" s="3">
         <f>B388/A388</f>
-        <v>0.99481865284974091</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/styles/HPE/progress_list.xlsx
+++ b/styles/HPE/progress_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtceurope-my.sharepoint.com/personal/eric_szegedi_dtc-e_com/Documents/personal_documents/git/vale_linter/styles/HPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C8437D09-466C-469D-8559-3163E2B45CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9972F6D3-97FF-46ED-9993-CF3E481B26F8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{C8437D09-466C-469D-8559-3163E2B45CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F973A4E5-D05B-483E-8354-6191A8F0DA3E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC14D7F9-078E-4114-B177-94F6D1D807CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="385">
   <si>
     <t>Zero</t>
   </si>
@@ -1573,8 +1573,8 @@
   <dimension ref="A1:C389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,9 +1946,6 @@
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -4685,17 +4682,17 @@
       </c>
       <c r="B388">
         <f>COUNTA(B2:B387)</f>
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C388">
         <f>A388-B388</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B389" s="3">
         <f>B388/A388</f>
-        <v>1</v>
+        <v>0.99740932642487046</v>
       </c>
     </row>
   </sheetData>
